--- a/localmenu_message/localMenu-mexsList_protocolCore.xlsx
+++ b/localmenu_message/localMenu-mexsList_protocolCore.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\localmenu_message\localMenu-mexs_protocolCore\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\localmenu_message\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E84089-4908-474C-A895-99BFD8E6D59D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D280FDE2-2FE4-40EC-982B-FD982CC74C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Capitolo</t>
   </si>
@@ -59,6 +59,30 @@
   </si>
   <si>
     <t>NOTA: * : questo numero varierà da Dossier e Progetto</t>
+  </si>
+  <si>
+    <t>Numero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Codice </t>
+  </si>
+  <si>
+    <t>Messaggio</t>
+  </si>
+  <si>
+    <t>Capitolo (Menù/Messaggio)</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Barcode</t>
+  </si>
+  <si>
+    <t>QR Code</t>
+  </si>
+  <si>
+    <t>Both</t>
   </si>
 </sst>
 </file>
@@ -90,7 +114,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -159,30 +183,128 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -467,7 +589,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,10 +648,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A5E6436-0720-424F-B3B9-97BEEB0EF635}">
-  <dimension ref="J1"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B1" sqref="B1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,7 +667,77 @@
     <col min="11" max="11" width="71.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="1:4" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="14">
+        <v>6911</v>
+      </c>
+      <c r="B3" s="11">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11">
+        <v>0</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
+        <v>6911</v>
+      </c>
+      <c r="B4" s="13">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
+        <v>6911</v>
+      </c>
+      <c r="B5" s="13">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13">
+        <v>2</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="16">
+        <v>6911</v>
+      </c>
+      <c r="B6" s="9">
+        <v>4</v>
+      </c>
+      <c r="C6" s="9">
+        <v>3</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/localmenu_message/localMenu-mexsList_protocolCore.xlsx
+++ b/localmenu_message/localMenu-mexsList_protocolCore.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\localmenu_message\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D280FDE2-2FE4-40EC-982B-FD982CC74C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E82BF53-5A7A-4F4A-A8AF-DD676A779A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6885" yWindow="3465" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Menù locali- Messaggi" sheetId="1" r:id="rId1"/>
@@ -49,15 +49,9 @@
     <t>Menù</t>
   </si>
   <si>
-    <t>YAX3M</t>
-  </si>
-  <si>
     <t>Supervisore</t>
   </si>
   <si>
-    <t>6911 *</t>
-  </si>
-  <si>
     <t>NOTA: * : questo numero varierà da Dossier e Progetto</t>
   </si>
   <si>
@@ -83,6 +77,12 @@
   </si>
   <si>
     <t>Both</t>
+  </si>
+  <si>
+    <t>YAX3C</t>
+  </si>
+  <si>
+    <t>6203 *</t>
   </si>
 </sst>
 </file>
@@ -258,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -292,9 +292,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -589,7 +586,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,7 +619,7 @@
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>5</v>
@@ -631,14 +628,14 @@
         <v>6</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="F2" s="4"/>
       <c r="K2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -669,21 +666,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
+      <c r="A3" s="13">
         <v>6911</v>
       </c>
       <c r="B3" s="11">
@@ -693,39 +690,39 @@
         <v>0</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
+      <c r="A4" s="14">
         <v>6911</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="4">
         <v>1</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+      <c r="A5" s="14">
         <v>6911</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="4">
         <v>3</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="4">
         <v>2</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16">
+      <c r="A6" s="15">
         <v>6911</v>
       </c>
       <c r="B6" s="9">
@@ -735,7 +732,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/localmenu_message/localMenu-mexsList_protocolCore.xlsx
+++ b/localmenu_message/localMenu-mexsList_protocolCore.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\localmenu_message\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E82BF53-5A7A-4F4A-A8AF-DD676A779A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A0EB1F-775C-4F3C-BCEE-0B56C798BAC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6885" yWindow="3465" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Menù locali- Messaggi" sheetId="1" r:id="rId1"/>
@@ -585,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A5E6436-0720-424F-B3B9-97BEEB0EF635}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,7 +681,7 @@
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
-        <v>6911</v>
+        <v>6203</v>
       </c>
       <c r="B3" s="11">
         <v>1</v>
@@ -695,7 +695,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
-        <v>6911</v>
+        <v>6203</v>
       </c>
       <c r="B4" s="4">
         <v>2</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
-        <v>6911</v>
+        <v>6203</v>
       </c>
       <c r="B5" s="4">
         <v>3</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15">
-        <v>6911</v>
+        <v>6203</v>
       </c>
       <c r="B6" s="9">
         <v>4</v>
